--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -2196,16 +2196,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2216,19 +2216,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -2571,16 +2571,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2591,21 +2591,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="153.5546875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -2571,16 +2571,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2591,21 +2591,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="153.5546875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -394,7 +394,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The residential status of the patient </t>
+    <t>The residential status of the patient</t>
   </si>
   <si>
     <t>The residential status of the patient. For example if this patient is a UK resident.</t>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$180</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6845" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6448" uniqueCount="718">
   <si>
     <t>Path</t>
   </si>
@@ -1655,6 +1655,12 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
+    <t>The domestic partnership status of a person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+  </si>
+  <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
   </si>
   <si>
@@ -1662,184 +1668,6 @@
   </si>
   <si>
     <t>PID-16</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.id</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.extension</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.id</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.extension</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/v3/MaritalStatus</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -2561,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN191"/>
+  <dimension ref="A1:AN180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2571,16 +2399,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.4453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2591,21 +2419,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="153.5546875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>
@@ -16744,11 +16572,13 @@
         <v>44</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X125" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="Y125" t="s" s="2">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16781,16 +16611,16 @@
         <v>44</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16798,7 +16628,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16821,16 +16651,20 @@
         <v>44</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>130</v>
+        <v>533</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>131</v>
+        <v>534</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>44</v>
       </c>
@@ -16878,7 +16712,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>133</v>
+        <v>532</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16893,16 +16727,16 @@
         <v>44</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL126" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>44</v>
@@ -16910,11 +16744,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16933,18 +16767,18 @@
         <v>44</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>97</v>
+        <v>541</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>144</v>
+        <v>542</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>44</v>
       </c>
@@ -16980,19 +16814,19 @@
         <v>44</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>137</v>
+        <v>540</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -17007,16 +16841,16 @@
         <v>44</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK127" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK127" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL127" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>44</v>
@@ -17024,7 +16858,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17032,10 +16866,10 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>44</v>
@@ -17044,22 +16878,22 @@
         <v>44</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -17108,7 +16942,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -17120,19 +16954,19 @@
         <v>44</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>44</v>
+        <v>553</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>540</v>
+        <v>44</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -17140,7 +16974,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17252,7 +17086,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17322,16 +17156,16 @@
         <v>44</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
         <v>137</v>
@@ -17366,43 +17200,41 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>544</v>
+        <v>203</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>44</v>
       </c>
@@ -17414,7 +17246,7 @@
         <v>44</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>548</v>
+        <v>44</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>44</v>
@@ -17450,13 +17282,13 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>44</v>
@@ -17465,7 +17297,7 @@
         <v>44</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>44</v>
@@ -17474,7 +17306,7 @@
         <v>44</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>551</v>
+        <v>44</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>44</v>
@@ -17482,7 +17314,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17493,7 +17325,7 @@
         <v>42</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>44</v>
@@ -17502,21 +17334,21 @@
         <v>44</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>44</v>
       </c>
@@ -17540,13 +17372,13 @@
         <v>44</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>44</v>
+        <v>565</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>44</v>
+        <v>566</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>44</v>
@@ -17564,13 +17396,13 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>44</v>
@@ -17579,16 +17411,16 @@
         <v>44</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>44</v>
@@ -17596,7 +17428,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17616,20 +17448,20 @@
         <v>44</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>44</v>
@@ -17678,7 +17510,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17693,16 +17525,16 @@
         <v>44</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>564</v>
+        <v>289</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>44</v>
@@ -17710,7 +17542,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17718,7 +17550,7 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>52</v>
@@ -17730,21 +17562,19 @@
         <v>44</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>567</v>
+        <v>131</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>568</v>
+        <v>132</v>
       </c>
       <c r="M134" s="2"/>
-      <c r="N134" t="s" s="2">
-        <v>569</v>
-      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>44</v>
       </c>
@@ -17792,7 +17622,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>570</v>
+        <v>133</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17807,7 +17637,7 @@
         <v>44</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>571</v>
+        <v>134</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
@@ -17816,7 +17646,7 @@
         <v>44</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>572</v>
+        <v>44</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>44</v>
@@ -17824,18 +17654,18 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>44</v>
@@ -17844,23 +17674,21 @@
         <v>44</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>574</v>
+        <v>144</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>575</v>
+        <v>145</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>44</v>
       </c>
@@ -17896,25 +17724,25 @@
         <v>44</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>578</v>
+        <v>137</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>44</v>
@@ -17923,7 +17751,7 @@
         <v>44</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>579</v>
+        <v>134</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>44</v>
@@ -17932,7 +17760,7 @@
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>580</v>
+        <v>44</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17940,7 +17768,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17948,7 +17776,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>52</v>
@@ -17957,25 +17785,25 @@
         <v>44</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>582</v>
+        <v>296</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>584</v>
+        <v>298</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -18000,13 +17828,13 @@
         <v>44</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>44</v>
+        <v>577</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>44</v>
+        <v>578</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>44</v>
@@ -18024,7 +17852,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>586</v>
+        <v>301</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -18039,7 +17867,7 @@
         <v>44</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>587</v>
+        <v>302</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>44</v>
@@ -18048,7 +17876,7 @@
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>588</v>
+        <v>303</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -18056,7 +17884,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18076,22 +17904,22 @@
         <v>44</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>590</v>
+        <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>591</v>
+        <v>305</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>592</v>
+        <v>306</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>307</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>594</v>
+        <v>308</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -18140,7 +17968,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>589</v>
+        <v>309</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -18155,16 +17983,16 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>595</v>
+        <v>310</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>596</v>
+        <v>311</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -18172,18 +18000,18 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>44</v>
@@ -18192,21 +18020,21 @@
         <v>44</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>598</v>
+        <v>130</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>599</v>
+        <v>314</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>44</v>
       </c>
@@ -18254,13 +18082,13 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>597</v>
+        <v>317</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>44</v>
@@ -18269,16 +18097,16 @@
         <v>44</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>602</v>
+        <v>318</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>603</v>
+        <v>319</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -18286,11 +18114,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18306,23 +18134,21 @@
         <v>44</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>605</v>
+        <v>130</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>606</v>
+        <v>322</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>607</v>
+        <v>323</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>44</v>
       </c>
@@ -18370,7 +18196,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>604</v>
+        <v>325</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18382,19 +18208,19 @@
         <v>44</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>611</v>
+        <v>326</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>44</v>
@@ -18402,7 +18228,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18413,7 +18239,7 @@
         <v>42</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>44</v>
@@ -18422,16 +18248,16 @@
         <v>44</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18482,13 +18308,13 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>44</v>
@@ -18497,7 +18323,7 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>44</v>
@@ -18506,7 +18332,7 @@
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18514,11 +18340,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18534,20 +18360,18 @@
         <v>44</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18596,7 +18420,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18611,7 +18435,7 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>44</v>
@@ -18620,7 +18444,7 @@
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18628,41 +18452,41 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>615</v>
+        <v>44</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>203</v>
+        <v>341</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
       </c>
@@ -18710,13 +18534,13 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>617</v>
+        <v>344</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>44</v>
@@ -18725,7 +18549,7 @@
         <v>44</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>44</v>
@@ -18734,7 +18558,7 @@
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18742,7 +18566,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18765,17 +18589,19 @@
         <v>44</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M143" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="N143" t="s" s="2">
-        <v>621</v>
+        <v>352</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18800,13 +18626,13 @@
         <v>44</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>622</v>
+        <v>44</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>44</v>
@@ -18824,7 +18650,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18839,7 +18665,7 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>624</v>
+        <v>353</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>134</v>
@@ -18848,7 +18674,7 @@
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>44</v>
@@ -18856,7 +18682,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18864,7 +18690,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>52</v>
@@ -18879,17 +18705,17 @@
         <v>44</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>283</v>
+        <v>433</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -18938,7 +18764,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18953,7 +18779,7 @@
         <v>44</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>134</v>
@@ -18962,7 +18788,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18970,7 +18796,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19082,7 +18908,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19196,7 +19022,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19204,7 +19030,7 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s" s="2">
         <v>52</v>
@@ -19222,16 +19048,16 @@
         <v>71</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>298</v>
+        <v>446</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>299</v>
+        <v>447</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>44</v>
@@ -19244,7 +19070,7 @@
         <v>44</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>44</v>
@@ -19259,10 +19085,10 @@
         <v>165</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>634</v>
+        <v>449</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>635</v>
+        <v>450</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
@@ -19280,7 +19106,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19304,7 +19130,7 @@
         <v>44</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>303</v>
+        <v>452</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19312,7 +19138,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19335,20 +19161,16 @@
         <v>53</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>305</v>
+        <v>454</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>44</v>
       </c>
@@ -19360,7 +19182,7 @@
         <v>44</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>44</v>
@@ -19372,13 +19194,13 @@
         <v>44</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>44</v>
@@ -19396,7 +19218,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19411,7 +19233,7 @@
         <v>44</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>44</v>
@@ -19420,7 +19242,7 @@
         <v>44</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>44</v>
@@ -19428,11 +19250,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19454,15 +19276,17 @@
         <v>130</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>314</v>
+        <v>462</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
       </c>
@@ -19474,7 +19298,7 @@
         <v>44</v>
       </c>
       <c r="S149" t="s" s="2">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>44</v>
@@ -19510,7 +19334,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19525,7 +19349,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>44</v>
@@ -19534,7 +19358,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>319</v>
+        <v>467</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19542,11 +19366,11 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19568,15 +19392,15 @@
         <v>130</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>322</v>
+        <v>469</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M150" s="2"/>
+      <c r="N150" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
       </c>
@@ -19588,7 +19412,7 @@
         <v>44</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>44</v>
@@ -19624,7 +19448,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19639,7 +19463,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>326</v>
+        <v>474</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>44</v>
@@ -19648,7 +19472,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>327</v>
+        <v>475</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19656,18 +19480,18 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>44</v>
@@ -19682,10 +19506,10 @@
         <v>130</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>329</v>
+        <v>478</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>330</v>
+        <v>479</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19700,7 +19524,7 @@
         <v>44</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>44</v>
@@ -19736,13 +19560,13 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>331</v>
+        <v>481</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>44</v>
@@ -19751,7 +19575,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>332</v>
+        <v>482</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>44</v>
@@ -19760,7 +19584,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>333</v>
+        <v>483</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19768,18 +19592,18 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>44</v>
@@ -19794,12 +19618,14 @@
         <v>130</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>335</v>
+        <v>486</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M152" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19812,7 +19638,7 @@
         <v>44</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>44</v>
@@ -19848,13 +19674,13 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>337</v>
+        <v>490</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>44</v>
@@ -19863,7 +19689,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>338</v>
+        <v>491</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>44</v>
@@ -19872,7 +19698,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>339</v>
+        <v>492</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19880,11 +19706,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19903,18 +19729,16 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>341</v>
+        <v>495</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>342</v>
+        <v>496</v>
       </c>
       <c r="M153" s="2"/>
-      <c r="N153" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>44</v>
       </c>
@@ -19962,7 +19786,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>344</v>
+        <v>497</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19977,7 +19801,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>345</v>
+        <v>498</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>44</v>
@@ -19986,7 +19810,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19994,18 +19818,18 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>44</v>
@@ -20014,23 +19838,19 @@
         <v>44</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>643</v>
+        <v>502</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>44</v>
       </c>
@@ -20042,7 +19862,7 @@
         <v>44</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>44</v>
+        <v>504</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>44</v>
@@ -20078,13 +19898,13 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>642</v>
+        <v>505</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>44</v>
@@ -20093,16 +19913,16 @@
         <v>44</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>353</v>
+        <v>506</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>646</v>
+        <v>507</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -20110,7 +19930,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20130,21 +19950,21 @@
         <v>44</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>433</v>
+        <v>130</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>648</v>
+        <v>509</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>44</v>
       </c>
@@ -20156,7 +19976,7 @@
         <v>44</v>
       </c>
       <c r="S155" t="s" s="2">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="T155" t="s" s="2">
         <v>44</v>
@@ -20192,7 +20012,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>647</v>
+        <v>513</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20207,16 +20027,16 @@
         <v>44</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>651</v>
+        <v>515</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>44</v>
@@ -20224,7 +20044,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>652</v>
+        <v>606</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20244,19 +20064,21 @@
         <v>44</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>132</v>
+        <v>518</v>
       </c>
       <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>44</v>
       </c>
@@ -20268,7 +20090,7 @@
         <v>44</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>44</v>
+        <v>520</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>44</v>
@@ -20304,7 +20126,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20319,7 +20141,7 @@
         <v>44</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -20328,7 +20150,7 @@
         <v>44</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>44</v>
+        <v>522</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>44</v>
@@ -20336,18 +20158,18 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>653</v>
+        <v>607</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>44</v>
@@ -20359,18 +20181,18 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>144</v>
+        <v>395</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O157" t="s" s="2">
         <v>44</v>
       </c>
@@ -20394,37 +20216,35 @@
         <v>44</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X157" s="2"/>
       <c r="Y157" t="s" s="2">
-        <v>44</v>
+        <v>610</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AC157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>137</v>
+        <v>607</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>44</v>
@@ -20433,16 +20253,16 @@
         <v>44</v>
       </c>
       <c r="AJ157" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK157" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK157" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>44</v>
+        <v>611</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>44</v>
@@ -20450,7 +20270,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20467,25 +20287,23 @@
         <v>44</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>444</v>
+        <v>613</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>447</v>
+        <v>615</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20498,7 +20316,7 @@
         <v>44</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>44</v>
@@ -20510,13 +20328,13 @@
         <v>44</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>44</v>
@@ -20534,7 +20352,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>451</v>
+        <v>612</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20543,22 +20361,22 @@
         <v>52</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>44</v>
+        <v>616</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>302</v>
+        <v>617</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>452</v>
+        <v>618</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20566,7 +20384,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20586,16 +20404,16 @@
         <v>44</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>454</v>
+        <v>620</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -20610,7 +20428,7 @@
         <v>44</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>44</v>
@@ -20622,13 +20440,13 @@
         <v>44</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20646,7 +20464,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>459</v>
+        <v>619</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20661,16 +20479,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>302</v>
+        <v>622</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20678,7 +20496,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20689,31 +20507,31 @@
         <v>42</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>130</v>
+        <v>548</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>462</v>
+        <v>624</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>463</v>
+        <v>625</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>464</v>
+        <v>626</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>308</v>
+        <v>627</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20726,7 +20544,7 @@
         <v>44</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>44</v>
@@ -20762,7 +20580,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>466</v>
+        <v>623</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20774,19 +20592,19 @@
         <v>44</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>310</v>
+        <v>629</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20794,7 +20612,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20805,7 +20623,7 @@
         <v>42</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>44</v>
@@ -20814,21 +20632,19 @@
         <v>44</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>469</v>
+        <v>131</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>470</v>
+        <v>132</v>
       </c>
       <c r="M161" s="2"/>
-      <c r="N161" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>44</v>
       </c>
@@ -20840,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="S161" t="s" s="2">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>44</v>
@@ -20876,13 +20692,13 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>44</v>
@@ -20891,7 +20707,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>474</v>
+        <v>134</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>44</v>
@@ -20900,7 +20716,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20908,18 +20724,18 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>44</v>
@@ -20928,18 +20744,20 @@
         <v>44</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M162" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20952,7 +20770,7 @@
         <v>44</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>44</v>
@@ -20988,13 +20806,13 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>481</v>
+        <v>137</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>44</v>
@@ -21003,7 +20821,7 @@
         <v>44</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>44</v>
@@ -21012,7 +20830,7 @@
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -21020,39 +20838,39 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>486</v>
+        <v>203</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>488</v>
+        <v>146</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21066,7 +20884,7 @@
         <v>44</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>489</v>
+        <v>44</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>44</v>
@@ -21102,13 +20920,13 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>44</v>
@@ -21117,7 +20935,7 @@
         <v>44</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>491</v>
+        <v>95</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -21126,7 +20944,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -21134,15 +20952,15 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>52</v>
@@ -21157,16 +20975,20 @@
         <v>53</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>495</v>
+        <v>634</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
       </c>
@@ -21190,13 +21012,13 @@
         <v>44</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>44</v>
+        <v>638</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>44</v>
+        <v>639</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>44</v>
+        <v>640</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>44</v>
@@ -21214,10 +21036,10 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>497</v>
+        <v>633</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>52</v>
@@ -21229,16 +21051,16 @@
         <v>44</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>499</v>
+        <v>641</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -21246,11 +21068,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21269,16 +21091,20 @@
         <v>53</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>502</v>
+        <v>643</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>44</v>
       </c>
@@ -21290,7 +21116,7 @@
         <v>44</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>44</v>
@@ -21302,13 +21128,13 @@
         <v>44</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>44</v>
+        <v>638</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>44</v>
+        <v>647</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>44</v>
+        <v>648</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>44</v>
@@ -21326,7 +21152,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>505</v>
+        <v>642</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21341,16 +21167,16 @@
         <v>44</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>506</v>
+        <v>649</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>507</v>
+        <v>650</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21358,7 +21184,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21381,18 +21207,18 @@
         <v>53</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>509</v>
+        <v>652</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N166" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
       </c>
@@ -21404,7 +21230,7 @@
         <v>44</v>
       </c>
       <c r="S166" t="s" s="2">
-        <v>512</v>
+        <v>44</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>44</v>
@@ -21416,13 +21242,13 @@
         <v>44</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>44</v>
+        <v>638</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>44</v>
+        <v>655</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>44</v>
+        <v>656</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21440,7 +21266,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>513</v>
+        <v>651</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21455,16 +21281,16 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>514</v>
+        <v>657</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>515</v>
+        <v>95</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21472,7 +21298,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21483,7 +21309,7 @@
         <v>42</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>44</v>
@@ -21492,20 +21318,22 @@
         <v>44</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>260</v>
+        <v>548</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="N167" t="s" s="2">
-        <v>519</v>
+        <v>662</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21518,7 +21346,7 @@
         <v>44</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>520</v>
+        <v>44</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>44</v>
@@ -21554,31 +21382,31 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>521</v>
+        <v>658</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>345</v>
+        <v>663</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>44</v>
+        <v>664</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>522</v>
+        <v>44</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21586,7 +21414,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21609,18 +21437,16 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>395</v>
+        <v>131</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>665</v>
+        <v>132</v>
       </c>
       <c r="M168" s="2"/>
-      <c r="N168" t="s" s="2">
-        <v>666</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>44</v>
       </c>
@@ -21644,11 +21470,13 @@
         <v>44</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X168" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y168" t="s" s="2">
-        <v>667</v>
+        <v>44</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>44</v>
@@ -21666,7 +21494,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>664</v>
+        <v>133</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21681,16 +21509,16 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>668</v>
+        <v>44</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21698,18 +21526,18 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>44</v>
@@ -21721,18 +21549,18 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>670</v>
+        <v>144</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>44</v>
       </c>
@@ -21780,31 +21608,31 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>669</v>
+        <v>137</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>673</v>
+        <v>44</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>674</v>
+        <v>134</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>675</v>
+        <v>44</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21812,38 +21640,40 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>677</v>
+        <v>203</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M170" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21892,13 +21722,13 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>44</v>
@@ -21907,10 +21737,10 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>679</v>
+        <v>95</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
@@ -21924,7 +21754,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21932,34 +21762,34 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>605</v>
+        <v>161</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21984,13 +21814,13 @@
         <v>44</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>44</v>
@@ -22008,10 +21838,10 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>52</v>
@@ -22020,19 +21850,19 @@
         <v>44</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>685</v>
+        <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>134</v>
+        <v>674</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>44</v>
+        <v>675</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -22040,7 +21870,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22063,16 +21893,20 @@
         <v>44</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>131</v>
+        <v>677</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>680</v>
+      </c>
       <c r="O172" t="s" s="2">
         <v>44</v>
       </c>
@@ -22120,7 +21954,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>133</v>
+        <v>676</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -22135,16 +21969,16 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>134</v>
+        <v>681</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>44</v>
+        <v>682</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>44</v>
+        <v>683</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -22152,11 +21986,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>143</v>
+        <v>685</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22175,16 +22009,16 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>97</v>
+        <v>686</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>144</v>
+        <v>687</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>145</v>
+        <v>688</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>146</v>
+        <v>689</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22234,7 +22068,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>137</v>
+        <v>684</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -22249,16 +22083,16 @@
         <v>44</v>
       </c>
       <c r="AJ173" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AK173" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK173" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>44</v>
+        <v>691</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22266,41 +22100,43 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>615</v>
+        <v>44</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>203</v>
+        <v>693</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N174" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="O174" t="s" s="2">
         <v>44</v>
       </c>
@@ -22348,25 +22184,25 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AF174" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK174" t="s" s="2">
-        <v>44</v>
+        <v>697</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>44</v>
@@ -22380,7 +22216,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22388,34 +22224,34 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>161</v>
+        <v>548</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>44</v>
@@ -22440,13 +22276,13 @@
         <v>44</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>695</v>
+        <v>44</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>696</v>
+        <v>44</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>697</v>
+        <v>44</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>44</v>
@@ -22464,22 +22300,22 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>134</v>
@@ -22488,7 +22324,7 @@
         <v>44</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>698</v>
+        <v>44</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>44</v>
@@ -22496,7 +22332,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22516,23 +22352,19 @@
         <v>44</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>700</v>
+        <v>131</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>44</v>
       </c>
@@ -22556,13 +22388,13 @@
         <v>44</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>695</v>
+        <v>44</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>704</v>
+        <v>44</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>705</v>
+        <v>44</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>44</v>
@@ -22580,7 +22412,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>699</v>
+        <v>133</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22595,16 +22427,16 @@
         <v>44</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>706</v>
+        <v>134</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>707</v>
+        <v>44</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22612,18 +22444,18 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>44</v>
@@ -22632,21 +22464,21 @@
         <v>44</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>709</v>
+        <v>144</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M177" s="2"/>
-      <c r="N177" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22670,13 +22502,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>695</v>
+        <v>44</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>712</v>
+        <v>44</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>713</v>
+        <v>44</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22694,13 +22526,13 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>708</v>
+        <v>137</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>44</v>
@@ -22709,16 +22541,16 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>714</v>
+        <v>134</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22726,43 +22558,41 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>44</v>
+        <v>558</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>605</v>
+        <v>97</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>716</v>
+        <v>203</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>717</v>
+        <v>559</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>719</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
         <v>44</v>
       </c>
@@ -22810,7 +22640,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>715</v>
+        <v>560</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22822,13 +22652,13 @@
         <v>44</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>685</v>
+        <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>720</v>
+        <v>95</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>721</v>
+        <v>44</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>44</v>
@@ -22842,7 +22672,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22850,7 +22680,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>52</v>
@@ -22862,18 +22692,20 @@
         <v>44</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>130</v>
+        <v>708</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>131</v>
+        <v>709</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M179" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22922,10 +22754,10 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>133</v>
+        <v>707</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>52</v>
@@ -22937,16 +22769,16 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK179" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK179" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>44</v>
+        <v>712</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>44</v>
@@ -22954,18 +22786,18 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>44</v>
@@ -22974,20 +22806,18 @@
         <v>44</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>144</v>
+        <v>714</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -23012,13 +22842,13 @@
         <v>44</v>
       </c>
       <c r="W180" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>44</v>
+        <v>715</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>44</v>
+        <v>716</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>44</v>
@@ -23036,13 +22866,13 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>137</v>
+        <v>713</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>44</v>
@@ -23051,11 +22881,11 @@
         <v>44</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AK180" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK180" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
       </c>
@@ -23063,1269 +22893,11 @@
         <v>44</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="181" hidden="true">
-      <c r="A181" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N181" s="2"/>
-      <c r="O181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="182" hidden="true">
-      <c r="A182" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="183" hidden="true">
-      <c r="A183" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P183" s="2"/>
-      <c r="Q183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="184" hidden="true">
-      <c r="A184" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N184" s="2"/>
-      <c r="O184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="185" hidden="true">
-      <c r="A185" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="186" hidden="true">
-      <c r="A186" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="187" hidden="true">
-      <c r="A187" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="188" hidden="true">
-      <c r="A188" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N188" s="2"/>
-      <c r="O188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="189" hidden="true">
-      <c r="A189" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N189" s="2"/>
-      <c r="O189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM189" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN189" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="190" hidden="true">
-      <c r="A190" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM190" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="AN190" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="191" hidden="true">
-      <c r="A191" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN191" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN191">
+  <autoFilter ref="A1:AN180">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -24335,7 +22907,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI190">
+  <conditionalFormatting sqref="A2:AI179">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$191</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6448" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6845" uniqueCount="775">
   <si>
     <t>Path</t>
   </si>
@@ -1655,12 +1655,6 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>The domestic partnership status of a person.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
-  </si>
-  <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
   </si>
   <si>
@@ -1668,6 +1662,184 @@
   </si>
   <si>
     <t>PID-16</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.id</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.extension</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/v3/MaritalStatus</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -2389,7 +2561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN180"/>
+  <dimension ref="A1:AN191"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2399,16 +2571,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2419,21 +2591,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="153.5546875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>
@@ -16572,13 +16744,11 @@
         <v>44</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16611,16 +16781,16 @@
         <v>44</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM125" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16628,7 +16798,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16651,20 +16821,16 @@
         <v>44</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>533</v>
+        <v>130</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>534</v>
+        <v>131</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>44</v>
       </c>
@@ -16712,7 +16878,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>532</v>
+        <v>133</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16727,16 +16893,16 @@
         <v>44</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>538</v>
+        <v>134</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>44</v>
@@ -16744,11 +16910,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16767,18 +16933,18 @@
         <v>44</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>541</v>
+        <v>97</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>542</v>
+        <v>144</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>44</v>
       </c>
@@ -16814,19 +16980,19 @@
         <v>44</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>540</v>
+        <v>137</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -16841,16 +17007,16 @@
         <v>44</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>545</v>
+        <v>134</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>546</v>
+        <v>44</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>44</v>
@@ -16858,7 +17024,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16866,10 +17032,10 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>44</v>
@@ -16878,22 +17044,22 @@
         <v>44</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>44</v>
@@ -16942,7 +17108,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16954,19 +17120,19 @@
         <v>44</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>553</v>
+        <v>44</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>44</v>
+        <v>540</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16974,7 +17140,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17086,7 +17252,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17156,16 +17322,16 @@
         <v>44</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE130" t="s" s="2">
         <v>137</v>
@@ -17200,41 +17366,43 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>558</v>
+        <v>44</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>203</v>
+        <v>544</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>44</v>
       </c>
@@ -17246,7 +17414,7 @@
         <v>44</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>44</v>
+        <v>548</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>44</v>
@@ -17282,13 +17450,13 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>44</v>
@@ -17297,7 +17465,7 @@
         <v>44</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>44</v>
@@ -17306,7 +17474,7 @@
         <v>44</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>44</v>
+        <v>551</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>44</v>
@@ -17314,7 +17482,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17325,7 +17493,7 @@
         <v>42</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>44</v>
@@ -17334,21 +17502,21 @@
         <v>44</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>44</v>
       </c>
@@ -17372,13 +17540,13 @@
         <v>44</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>565</v>
+        <v>44</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>566</v>
+        <v>44</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>44</v>
@@ -17396,13 +17564,13 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>44</v>
@@ -17411,16 +17579,16 @@
         <v>44</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>44</v>
@@ -17428,7 +17596,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17448,20 +17616,20 @@
         <v>44</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>44</v>
@@ -17510,7 +17678,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17525,16 +17693,16 @@
         <v>44</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>289</v>
+        <v>564</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>44</v>
@@ -17542,7 +17710,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17550,7 +17718,7 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>52</v>
@@ -17562,19 +17730,21 @@
         <v>44</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>131</v>
+        <v>567</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>132</v>
+        <v>568</v>
       </c>
       <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+      <c r="N134" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
       </c>
@@ -17622,7 +17792,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>133</v>
+        <v>570</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17637,7 +17807,7 @@
         <v>44</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>134</v>
+        <v>571</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
@@ -17646,7 +17816,7 @@
         <v>44</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>44</v>
+        <v>572</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>44</v>
@@ -17654,18 +17824,18 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>44</v>
@@ -17674,21 +17844,23 @@
         <v>44</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>144</v>
+        <v>574</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>44</v>
       </c>
@@ -17724,25 +17896,25 @@
         <v>44</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>137</v>
+        <v>578</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>44</v>
@@ -17751,7 +17923,7 @@
         <v>44</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>134</v>
+        <v>579</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>44</v>
@@ -17760,7 +17932,7 @@
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>44</v>
+        <v>580</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17768,7 +17940,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17776,7 +17948,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>52</v>
@@ -17785,25 +17957,25 @@
         <v>44</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>296</v>
+        <v>582</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>297</v>
+        <v>583</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>298</v>
+        <v>584</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>299</v>
+        <v>585</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17828,13 +18000,13 @@
         <v>44</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>577</v>
+        <v>44</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>578</v>
+        <v>44</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>44</v>
@@ -17852,7 +18024,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>301</v>
+        <v>586</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17867,7 +18039,7 @@
         <v>44</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>302</v>
+        <v>587</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>44</v>
@@ -17876,7 +18048,7 @@
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>303</v>
+        <v>588</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -17884,7 +18056,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17904,22 +18076,22 @@
         <v>44</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>305</v>
+        <v>591</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>306</v>
+        <v>592</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>307</v>
+        <v>593</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>308</v>
+        <v>594</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17968,7 +18140,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>309</v>
+        <v>589</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17983,16 +18155,16 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>310</v>
+        <v>595</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>311</v>
+        <v>596</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -18000,18 +18172,18 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>44</v>
@@ -18020,21 +18192,21 @@
         <v>44</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>130</v>
+        <v>598</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>314</v>
+        <v>599</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>44</v>
       </c>
@@ -18082,13 +18254,13 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>317</v>
+        <v>597</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>44</v>
@@ -18097,16 +18269,16 @@
         <v>44</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>318</v>
+        <v>602</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>319</v>
+        <v>603</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>44</v>
@@ -18114,11 +18286,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18134,21 +18306,23 @@
         <v>44</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>130</v>
+        <v>605</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>322</v>
+        <v>606</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>323</v>
+        <v>607</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
       </c>
@@ -18196,7 +18370,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18208,19 +18382,19 @@
         <v>44</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>44</v>
+        <v>610</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>326</v>
+        <v>611</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>44</v>
@@ -18228,7 +18402,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18239,7 +18413,7 @@
         <v>42</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>44</v>
@@ -18248,16 +18422,16 @@
         <v>44</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>330</v>
+        <v>132</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18308,13 +18482,13 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>44</v>
@@ -18323,7 +18497,7 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>44</v>
@@ -18332,7 +18506,7 @@
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18340,11 +18514,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18360,18 +18534,20 @@
         <v>44</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M141" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18420,7 +18596,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18435,7 +18611,7 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>44</v>
@@ -18444,7 +18620,7 @@
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18452,41 +18628,41 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>44</v>
+        <v>615</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>44</v>
       </c>
@@ -18534,13 +18710,13 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>344</v>
+        <v>617</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>44</v>
@@ -18549,7 +18725,7 @@
         <v>44</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>44</v>
@@ -18558,7 +18734,7 @@
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18566,7 +18742,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18589,19 +18765,17 @@
         <v>44</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>352</v>
+        <v>621</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18626,13 +18800,13 @@
         <v>44</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>44</v>
+        <v>622</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>44</v>
+        <v>623</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>44</v>
@@ -18650,7 +18824,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18665,7 +18839,7 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>353</v>
+        <v>624</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>134</v>
@@ -18674,7 +18848,7 @@
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>44</v>
@@ -18682,7 +18856,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18690,7 +18864,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>52</v>
@@ -18705,17 +18879,17 @@
         <v>44</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -18764,7 +18938,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18779,7 +18953,7 @@
         <v>44</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>134</v>
@@ -18788,7 +18962,7 @@
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18796,7 +18970,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18908,7 +19082,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19022,7 +19196,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19030,7 +19204,7 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F147" t="s" s="2">
         <v>52</v>
@@ -19048,16 +19222,16 @@
         <v>71</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>446</v>
+        <v>298</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>447</v>
+        <v>299</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>44</v>
@@ -19070,7 +19244,7 @@
         <v>44</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>44</v>
@@ -19085,10 +19259,10 @@
         <v>165</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>450</v>
+        <v>635</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
@@ -19106,7 +19280,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19130,7 +19304,7 @@
         <v>44</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>452</v>
+        <v>303</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19138,7 +19312,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19161,16 +19335,20 @@
         <v>53</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O148" t="s" s="2">
         <v>44</v>
       </c>
@@ -19182,7 +19360,7 @@
         <v>44</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>44</v>
@@ -19194,13 +19372,13 @@
         <v>44</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>44</v>
@@ -19218,7 +19396,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>459</v>
+        <v>309</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19233,7 +19411,7 @@
         <v>44</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>44</v>
@@ -19242,7 +19420,7 @@
         <v>44</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>44</v>
@@ -19250,11 +19428,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19276,17 +19454,15 @@
         <v>130</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>44</v>
       </c>
@@ -19298,7 +19474,7 @@
         <v>44</v>
       </c>
       <c r="S149" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>44</v>
@@ -19334,7 +19510,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>466</v>
+        <v>317</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19349,7 +19525,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>44</v>
@@ -19358,7 +19534,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19366,11 +19542,11 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19392,15 +19568,15 @@
         <v>130</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>469</v>
+        <v>322</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>44</v>
       </c>
@@ -19412,7 +19588,7 @@
         <v>44</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>44</v>
@@ -19448,7 +19624,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19463,7 +19639,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>44</v>
@@ -19472,7 +19648,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19480,18 +19656,18 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>477</v>
+        <v>44</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>44</v>
@@ -19506,10 +19682,10 @@
         <v>130</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>479</v>
+        <v>330</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19524,7 +19700,7 @@
         <v>44</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>44</v>
@@ -19560,13 +19736,13 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>44</v>
@@ -19575,7 +19751,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>44</v>
@@ -19584,7 +19760,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>483</v>
+        <v>333</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19592,18 +19768,18 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>485</v>
+        <v>44</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>44</v>
@@ -19618,14 +19794,12 @@
         <v>130</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>486</v>
+        <v>335</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19638,7 +19812,7 @@
         <v>44</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>489</v>
+        <v>44</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>44</v>
@@ -19674,13 +19848,13 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>44</v>
@@ -19689,7 +19863,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>491</v>
+        <v>338</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>44</v>
@@ -19698,7 +19872,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19706,11 +19880,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19729,16 +19903,18 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>495</v>
+        <v>341</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>496</v>
+        <v>342</v>
       </c>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="N153" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
       </c>
@@ -19786,7 +19962,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>497</v>
+        <v>344</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19801,7 +19977,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>498</v>
+        <v>345</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>44</v>
@@ -19810,7 +19986,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>499</v>
+        <v>346</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19818,18 +19994,18 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>44</v>
@@ -19838,19 +20014,23 @@
         <v>44</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>502</v>
+        <v>643</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>44</v>
       </c>
@@ -19862,7 +20042,7 @@
         <v>44</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>504</v>
+        <v>44</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>44</v>
@@ -19898,13 +20078,13 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>505</v>
+        <v>642</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>44</v>
@@ -19913,16 +20093,16 @@
         <v>44</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>506</v>
+        <v>353</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>507</v>
+        <v>646</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -19930,7 +20110,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19950,21 +20130,21 @@
         <v>44</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>509</v>
+        <v>648</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N155" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="O155" t="s" s="2">
         <v>44</v>
       </c>
@@ -19976,7 +20156,7 @@
         <v>44</v>
       </c>
       <c r="S155" t="s" s="2">
-        <v>512</v>
+        <v>44</v>
       </c>
       <c r="T155" t="s" s="2">
         <v>44</v>
@@ -20012,7 +20192,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -20027,16 +20207,16 @@
         <v>44</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>515</v>
+        <v>651</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>44</v>
@@ -20044,7 +20224,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20064,21 +20244,19 @@
         <v>44</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>517</v>
+        <v>131</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>518</v>
+        <v>132</v>
       </c>
       <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>519</v>
-      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>44</v>
       </c>
@@ -20090,7 +20268,7 @@
         <v>44</v>
       </c>
       <c r="S156" t="s" s="2">
-        <v>520</v>
+        <v>44</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>44</v>
@@ -20126,7 +20304,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>521</v>
+        <v>133</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20141,7 +20319,7 @@
         <v>44</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -20150,7 +20328,7 @@
         <v>44</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>522</v>
+        <v>44</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>44</v>
@@ -20158,18 +20336,18 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>44</v>
@@ -20181,18 +20359,18 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>395</v>
+        <v>144</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>44</v>
       </c>
@@ -20216,35 +20394,37 @@
         <v>44</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X157" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y157" t="s" s="2">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>607</v>
+        <v>137</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>44</v>
@@ -20253,16 +20433,16 @@
         <v>44</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>611</v>
+        <v>44</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>44</v>
@@ -20270,7 +20450,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20287,23 +20467,25 @@
         <v>44</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>613</v>
+        <v>444</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>615</v>
+        <v>447</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20316,7 +20498,7 @@
         <v>44</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>44</v>
@@ -20328,13 +20510,13 @@
         <v>44</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>44</v>
@@ -20352,7 +20534,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>612</v>
+        <v>451</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20361,22 +20543,22 @@
         <v>52</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>616</v>
+        <v>44</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>617</v>
+        <v>302</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>618</v>
+        <v>452</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20384,7 +20566,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20404,16 +20586,16 @@
         <v>44</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>620</v>
+        <v>454</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>621</v>
+        <v>455</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -20428,7 +20610,7 @@
         <v>44</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>44</v>
@@ -20440,13 +20622,13 @@
         <v>44</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20464,7 +20646,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>619</v>
+        <v>459</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20479,16 +20661,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>622</v>
+        <v>302</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20496,7 +20678,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20507,31 +20689,31 @@
         <v>42</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>548</v>
+        <v>130</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>624</v>
+        <v>462</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>625</v>
+        <v>463</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>626</v>
+        <v>464</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>627</v>
+        <v>308</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20544,7 +20726,7 @@
         <v>44</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>44</v>
@@ -20580,7 +20762,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>623</v>
+        <v>466</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20592,19 +20774,19 @@
         <v>44</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>628</v>
+        <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>629</v>
+        <v>310</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>44</v>
+        <v>467</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20612,7 +20794,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20623,7 +20805,7 @@
         <v>42</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>44</v>
@@ -20632,19 +20814,21 @@
         <v>44</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>131</v>
+        <v>469</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>132</v>
+        <v>470</v>
       </c>
       <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
       </c>
@@ -20656,7 +20840,7 @@
         <v>44</v>
       </c>
       <c r="S161" t="s" s="2">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>44</v>
@@ -20692,13 +20876,13 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>133</v>
+        <v>473</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>44</v>
@@ -20707,7 +20891,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>134</v>
+        <v>474</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>44</v>
@@ -20716,7 +20900,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20724,18 +20908,18 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>44</v>
@@ -20744,20 +20928,18 @@
         <v>44</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>144</v>
+        <v>478</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20770,7 +20952,7 @@
         <v>44</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>44</v>
@@ -20806,13 +20988,13 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>137</v>
+        <v>481</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>44</v>
@@ -20821,7 +21003,7 @@
         <v>44</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>134</v>
+        <v>482</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>44</v>
@@ -20830,7 +21012,7 @@
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -20838,39 +21020,39 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>203</v>
+        <v>486</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>146</v>
+        <v>488</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -20884,7 +21066,7 @@
         <v>44</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>44</v>
@@ -20920,13 +21102,13 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>44</v>
@@ -20935,7 +21117,7 @@
         <v>44</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>95</v>
+        <v>491</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>44</v>
@@ -20944,7 +21126,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -20952,15 +21134,15 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>52</v>
@@ -20975,20 +21157,16 @@
         <v>53</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>634</v>
+        <v>495</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>44</v>
       </c>
@@ -21012,13 +21190,13 @@
         <v>44</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>639</v>
+        <v>44</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>640</v>
+        <v>44</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>44</v>
@@ -21036,10 +21214,10 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>633</v>
+        <v>497</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>52</v>
@@ -21051,16 +21229,16 @@
         <v>44</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>641</v>
+        <v>499</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -21068,11 +21246,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21091,20 +21269,16 @@
         <v>53</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>643</v>
+        <v>502</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>44</v>
       </c>
@@ -21116,7 +21290,7 @@
         <v>44</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>44</v>
+        <v>504</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>44</v>
@@ -21128,13 +21302,13 @@
         <v>44</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>647</v>
+        <v>44</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>648</v>
+        <v>44</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>44</v>
@@ -21152,7 +21326,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>642</v>
+        <v>505</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21167,16 +21341,16 @@
         <v>44</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>649</v>
+        <v>506</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>650</v>
+        <v>507</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21184,7 +21358,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21207,18 +21381,18 @@
         <v>53</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>652</v>
+        <v>509</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>44</v>
       </c>
@@ -21230,7 +21404,7 @@
         <v>44</v>
       </c>
       <c r="S166" t="s" s="2">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="T166" t="s" s="2">
         <v>44</v>
@@ -21242,13 +21416,13 @@
         <v>44</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>655</v>
+        <v>44</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>656</v>
+        <v>44</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21266,7 +21440,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>651</v>
+        <v>513</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21281,16 +21455,16 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>657</v>
+        <v>514</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>95</v>
+        <v>515</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21298,7 +21472,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21309,7 +21483,7 @@
         <v>42</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>44</v>
@@ -21318,22 +21492,20 @@
         <v>44</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>548</v>
+        <v>260</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>661</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>662</v>
+        <v>519</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21346,7 +21518,7 @@
         <v>44</v>
       </c>
       <c r="S167" t="s" s="2">
-        <v>44</v>
+        <v>520</v>
       </c>
       <c r="T167" t="s" s="2">
         <v>44</v>
@@ -21382,31 +21554,31 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>658</v>
+        <v>521</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>628</v>
+        <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>663</v>
+        <v>345</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>664</v>
+        <v>44</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>44</v>
+        <v>522</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21414,7 +21586,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21437,16 +21609,18 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>132</v>
+        <v>665</v>
       </c>
       <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
+      <c r="N168" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
       </c>
@@ -21470,13 +21644,11 @@
         <v>44</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X168" s="2"/>
       <c r="Y168" t="s" s="2">
-        <v>44</v>
+        <v>667</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>44</v>
@@ -21494,7 +21666,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>133</v>
+        <v>664</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21509,16 +21681,16 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK168" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK168" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL168" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>44</v>
+        <v>668</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21526,18 +21698,18 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>44</v>
@@ -21549,18 +21721,18 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>144</v>
+        <v>670</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N169" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" t="s" s="2">
+        <v>672</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
       </c>
@@ -21608,31 +21780,31 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>137</v>
+        <v>669</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>44</v>
+        <v>673</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AK169" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK169" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL169" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>44</v>
+        <v>675</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21640,40 +21812,38 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>558</v>
+        <v>44</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>203</v>
+        <v>677</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21722,13 +21892,13 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>560</v>
+        <v>676</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>44</v>
@@ -21737,10 +21907,10 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>95</v>
+        <v>679</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
@@ -21754,7 +21924,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21762,34 +21932,34 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>161</v>
+        <v>605</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21814,13 +21984,13 @@
         <v>44</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>44</v>
@@ -21838,10 +22008,10 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>52</v>
@@ -21850,19 +22020,19 @@
         <v>44</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>44</v>
+        <v>685</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>674</v>
+        <v>134</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>675</v>
+        <v>44</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21870,7 +22040,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21893,20 +22063,16 @@
         <v>44</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>677</v>
+        <v>131</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
         <v>44</v>
       </c>
@@ -21954,7 +22120,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>676</v>
+        <v>133</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21969,16 +22135,16 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>681</v>
+        <v>134</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>682</v>
+        <v>44</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>683</v>
+        <v>44</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -21986,11 +22152,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>685</v>
+        <v>143</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22009,16 +22175,16 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>686</v>
+        <v>97</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>687</v>
+        <v>144</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>688</v>
+        <v>145</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>689</v>
+        <v>146</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22068,7 +22234,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>684</v>
+        <v>137</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -22083,16 +22249,16 @@
         <v>44</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>690</v>
+        <v>134</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>691</v>
+        <v>44</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22100,43 +22266,41 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>44</v>
+        <v>615</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>693</v>
+        <v>203</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>694</v>
+        <v>616</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>44</v>
       </c>
@@ -22184,13 +22348,13 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>692</v>
+        <v>617</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>44</v>
@@ -22199,10 +22363,10 @@
         <v>44</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>617</v>
+        <v>95</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>697</v>
+        <v>44</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>44</v>
@@ -22216,7 +22380,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22224,34 +22388,34 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>548</v>
+        <v>161</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>44</v>
@@ -22276,13 +22440,13 @@
         <v>44</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>44</v>
+        <v>695</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>44</v>
+        <v>696</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>44</v>
+        <v>697</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>44</v>
@@ -22300,22 +22464,22 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>628</v>
+        <v>44</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>703</v>
+        <v>624</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>134</v>
@@ -22324,7 +22488,7 @@
         <v>44</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>44</v>
+        <v>698</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>44</v>
@@ -22332,7 +22496,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22352,19 +22516,23 @@
         <v>44</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>131</v>
+        <v>700</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
+        <v>701</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
       </c>
@@ -22388,13 +22556,13 @@
         <v>44</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>44</v>
+        <v>695</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>44</v>
+        <v>704</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>44</v>
+        <v>705</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>44</v>
@@ -22412,7 +22580,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>133</v>
+        <v>699</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22427,16 +22595,16 @@
         <v>44</v>
       </c>
       <c r="AJ176" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AK176" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK176" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL176" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>44</v>
+        <v>707</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>44</v>
@@ -22444,18 +22612,18 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>44</v>
@@ -22464,21 +22632,21 @@
         <v>44</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>144</v>
+        <v>709</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N177" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
       </c>
@@ -22502,13 +22670,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>44</v>
+        <v>695</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>44</v>
+        <v>712</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>44</v>
+        <v>713</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22526,13 +22694,13 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>137</v>
+        <v>708</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>44</v>
@@ -22541,16 +22709,16 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AK177" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK177" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22558,41 +22726,43 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>558</v>
+        <v>44</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>203</v>
+        <v>716</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>559</v>
+        <v>717</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N178" s="2"/>
+        <v>718</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>719</v>
+      </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
       </c>
@@ -22640,7 +22810,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>560</v>
+        <v>715</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22652,13 +22822,13 @@
         <v>44</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>44</v>
+        <v>685</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>95</v>
+        <v>720</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>44</v>
+        <v>721</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>44</v>
@@ -22672,7 +22842,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22680,7 +22850,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>52</v>
@@ -22692,20 +22862,18 @@
         <v>44</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>708</v>
+        <v>130</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>709</v>
+        <v>131</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22754,10 +22922,10 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>707</v>
+        <v>133</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>52</v>
@@ -22769,16 +22937,16 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>712</v>
+        <v>44</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>44</v>
@@ -22786,18 +22954,18 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>44</v>
@@ -22806,18 +22974,20 @@
         <v>44</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>714</v>
+        <v>144</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="M180" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22842,62 +23012,1320 @@
         <v>44</v>
       </c>
       <c r="W180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" hidden="true">
+      <c r="A181" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P181" s="2"/>
+      <c r="Q181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" hidden="true">
+      <c r="A182" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" hidden="true">
+      <c r="A183" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" hidden="true">
+      <c r="A184" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N184" s="2"/>
+      <c r="O184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" hidden="true">
+      <c r="A185" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" hidden="true">
+      <c r="A186" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" hidden="true">
+      <c r="A187" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" hidden="true">
+      <c r="A188" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N188" s="2"/>
+      <c r="O188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM188" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN188" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" hidden="true">
+      <c r="A189" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM189" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN189" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" hidden="true">
+      <c r="A190" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" hidden="true">
+      <c r="A191" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W191" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X180" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AK180" t="s" s="2">
+      <c r="X191" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AK191" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN180" t="s" s="2">
+      <c r="AL191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN191" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN180">
+  <autoFilter ref="A1:AN191">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -22907,7 +24335,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI179">
+  <conditionalFormatting sqref="A2:AI190">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6845" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6847" uniqueCount="775">
   <si>
     <t>Path</t>
   </si>
@@ -551,11 +551,11 @@
     <t>preferred</t>
   </si>
   <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>valueBoolean</t>
   </si>
   <si>
     <t>Indicates whether or not this language is preferred (over other languages up a certain level)</t>
@@ -2571,16 +2571,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2591,21 +2591,21 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="153.5546875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>
@@ -6586,7 +6586,9 @@
       <c r="A36" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
@@ -6607,7 +6609,7 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>156</v>
@@ -6697,7 +6699,7 @@
         <v>160</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>44</v>
@@ -6719,7 +6721,7 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>171</v>
@@ -9976,7 +9978,9 @@
       <c r="A66" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>156</v>
@@ -10087,7 +10091,7 @@
         <v>160</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>44</v>
@@ -10109,7 +10113,7 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>185</v>
@@ -12155,7 +12159,7 @@
         <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>275</v>
@@ -17847,7 +17851,7 @@
         <v>53</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>574</v>
@@ -23321,7 +23325,7 @@
         <v>44</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>734</v>

--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -5462,7 +5462,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>52</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>52</v>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>52</v>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>52</v>
